--- a/src/main/resources/xlsx/cadre/cadres.xlsx
+++ b/src/main/resources/xlsx/cadre/cadres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3177137-CA65-4B75-ADFC-59E2215A29CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD280976-D931-428F-B378-64C308DACCB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>党派</t>
-  </si>
-  <si>
     <t>所学专业</t>
   </si>
   <si>
@@ -81,6 +78,10 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -526,10 +527,10 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
@@ -549,9 +550,9 @@
     <col min="17" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="48.6" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -568,12 +569,12 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="31.15" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
@@ -591,32 +592,32 @@
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -636,9 +637,9 @@
       <c r="O3" s="11"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="25.9" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>

--- a/src/main/resources/xlsx/cadre/cadres.xlsx
+++ b/src/main/resources/xlsx/cadre/cadres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cadre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\owip\src\main\resources\xlsx\cadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD280976-D931-428F-B378-64C308DACCB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3415F88-A055-4949-B366-1C43A45FBEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4245" windowWidth="20025" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -73,15 +73,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school中层干部名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school中层干部（type）名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.9" customHeight="1"/>
@@ -552,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="48.6" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>11</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="4" spans="1:16" ht="25.9" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>

--- a/src/main/resources/xlsx/cadre/cadres.xlsx
+++ b/src/main/resources/xlsx/cadre/cadres.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\owip\src\main\resources\xlsx\cadre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3415F88-A055-4949-B366-1C43A45FBEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="4245" windowWidth="20025" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4245" windowWidth="20025" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -81,18 +80,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school中层干部（type）名单</t>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -523,14 +522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
@@ -550,7 +549,7 @@
     <col min="17" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.6" customHeight="1">
+    <row r="1" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -569,7 +568,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="31.15" customHeight="1">
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -617,7 +616,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -637,7 +636,7 @@
       <c r="O3" s="11"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="25.9" customHeight="1">
+    <row r="4" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
